--- a/model/数据库表.xlsx
+++ b/model/数据库表.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="User 用户模型" sheetId="1" r:id="rId1"/>
     <sheet name="Class 班级模型" sheetId="2" r:id="rId2"/>
-    <sheet name="Homework 作业模型" sheetId="3" r:id="rId3"/>
+    <sheet name="Exam 测试题模型" sheetId="3" r:id="rId3"/>
     <sheet name="Gradebook 成绩册模型" sheetId="4" r:id="rId4"/>
+    <sheet name="Broadcast 留言板模型" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40,10 +41,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UserName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>string</t>
   </si>
   <si>
@@ -206,10 +203,6 @@
   </si>
   <si>
     <t>ClassId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HomeworkName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -264,20 +257,6 @@
   </si>
   <si>
     <r>
-      <t>bson</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11.3"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>.ObjectId</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>time</t>
     </r>
     <r>
@@ -291,34 +270,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">作业Id </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>所属班级Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>作业名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作业描述信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>提交截止时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>作业问题个数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作业问题单个分值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -331,10 +290,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>HomeworkId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>StudentId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -355,19 +310,100 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>成绩册Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属作业Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属学生Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HomeworkList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班级的作业Id列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Username</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExamName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">测试题Id </t>
+  </si>
+  <si>
+    <t>测试题名称</t>
+  </si>
+  <si>
+    <t>测试题描述信息</t>
+  </si>
+  <si>
+    <t>测试题个数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试题单个分值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>得到的分数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>成绩册Id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所属作业Id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所属学生Id</t>
+    <t>ExamId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bson.ObjectId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FromId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ToId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UpdatedAt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bson.ObjectId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bson.ObjectId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>留言板Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收方Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>留言内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送方Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -759,7 +795,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -784,120 +820,120 @@
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.6">
       <c r="A3" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.6">
       <c r="A4" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.6">
       <c r="A5" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.6">
       <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.6">
       <c r="A7" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.6">
       <c r="A8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.6">
       <c r="A9" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.6">
       <c r="A10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.6">
       <c r="A11" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.6">
       <c r="A12" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -909,10 +945,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:C8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -937,76 +973,87 @@
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.6">
       <c r="A3" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.6">
       <c r="A4" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.6">
       <c r="A5" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.6">
       <c r="A6" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.6">
       <c r="A7" s="3" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.6">
       <c r="A8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>20</v>
-      </c>
       <c r="C8" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.6">
+      <c r="A9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1018,10 +1065,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1043,112 +1090,112 @@
     </row>
     <row r="2" spans="1:3" ht="15.6">
       <c r="A2" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.6">
       <c r="A3" s="3" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.6">
       <c r="A4" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.6">
       <c r="A5" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.6">
       <c r="A6" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.6">
       <c r="A7" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.6">
       <c r="A8" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.6">
       <c r="A9" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.6">
       <c r="A10" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.6">
       <c r="A11" s="3" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.6">
@@ -1159,18 +1206,7 @@
         <v>19</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15.6">
-      <c r="A13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1183,8 +1219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1205,90 +1241,90 @@
     </row>
     <row r="2" spans="1:3" ht="15.6">
       <c r="A2" s="3" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.6">
       <c r="A3" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.6">
       <c r="A4" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.6">
       <c r="A5" s="3" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.6">
       <c r="A6" s="3" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.6">
       <c r="A7" s="3" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.6">
       <c r="A8" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.6">
       <c r="A9" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1296,4 +1332,100 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="3" width="25.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.6">
+      <c r="A2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.6">
+      <c r="A3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.6">
+      <c r="A4" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.6">
+      <c r="A5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.6">
+      <c r="A6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.6">
+      <c r="A7" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>